--- a/teaching/traditional_assets/database/data/romania/romania_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/romania/romania_financial_svcs_non_bank_insurance.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0443</v>
+        <v>-0.0119</v>
       </c>
       <c r="E2">
-        <v>-0.09320000000000001</v>
+        <v>-0.008529999999999999</v>
       </c>
       <c r="G2">
-        <v>0.3453908984830805</v>
+        <v>0.1582213029989659</v>
       </c>
       <c r="H2">
-        <v>0.3453908984830805</v>
+        <v>0.1582213029989659</v>
       </c>
       <c r="I2">
-        <v>0.1715285880980163</v>
+        <v>0.1737331954498449</v>
       </c>
       <c r="J2">
-        <v>0.1433541051168102</v>
+        <v>0.145996843193817</v>
       </c>
       <c r="K2">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="L2">
-        <v>0.2193698949824971</v>
+        <v>0.2006204756980352</v>
       </c>
       <c r="M2">
-        <v>2.154</v>
+        <v>1.875</v>
       </c>
       <c r="N2">
-        <v>0.04441237113402062</v>
+        <v>0.04040948275862069</v>
       </c>
       <c r="O2">
-        <v>1.145744680851064</v>
+        <v>0.9664948453608248</v>
       </c>
       <c r="P2">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="Q2">
-        <v>0.04329896907216495</v>
+        <v>0.0331896551724138</v>
       </c>
       <c r="R2">
-        <v>1.117021276595745</v>
+        <v>0.7938144329896908</v>
       </c>
       <c r="S2">
-        <v>0.05399999999999983</v>
+        <v>0.335</v>
       </c>
       <c r="T2">
-        <v>0.02506963788300828</v>
+        <v>0.1786666666666666</v>
       </c>
       <c r="U2">
-        <v>11.6</v>
+        <v>3.39</v>
       </c>
       <c r="V2">
-        <v>0.2391752577319587</v>
+        <v>0.07306034482758621</v>
       </c>
       <c r="W2">
-        <v>0.06937269372693726</v>
+        <v>0.07822580645161289</v>
       </c>
       <c r="X2">
-        <v>0.03022436156583486</v>
+        <v>0.02074394029738349</v>
       </c>
       <c r="Y2">
-        <v>0.0391483321611024</v>
+        <v>0.05748186615422941</v>
       </c>
       <c r="Z2">
-        <v>0.3458434221146086</v>
+        <v>0.7325757575757575</v>
       </c>
       <c r="AA2">
-        <v>0.04957807428777497</v>
+        <v>0.1069537480063796</v>
       </c>
       <c r="AB2">
-        <v>0.03022436156583486</v>
+        <v>0.0209779607983485</v>
       </c>
       <c r="AC2">
-        <v>0.01935371272194011</v>
+        <v>0.08597578720803108</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.945</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.945</v>
       </c>
       <c r="AG2">
-        <v>-11.6</v>
+        <v>-2.445</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.01995986904636181</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.02550951545417735</v>
       </c>
       <c r="AJ2">
-        <v>-0.3143631436314363</v>
+        <v>-0.05562507109543852</v>
       </c>
       <c r="AK2">
-        <v>-0.7483870967741935</v>
+        <v>-0.0726489377507057</v>
       </c>
       <c r="AL2">
-        <v>0.001</v>
+        <v>0.089</v>
       </c>
       <c r="AM2">
-        <v>-0.6879999999999999</v>
+        <v>-0.652</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.3987341772151898</v>
       </c>
       <c r="AO2">
-        <v>1470</v>
+        <v>18.87640449438202</v>
       </c>
       <c r="AP2">
-        <v>-5.576923076923077</v>
+        <v>-1.031645569620253</v>
       </c>
       <c r="AQ2">
-        <v>-2.136627906976744</v>
+        <v>-2.576687116564417</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0443</v>
+        <v>-0.0119</v>
       </c>
       <c r="E3">
-        <v>-0.09320000000000001</v>
+        <v>-0.008529999999999999</v>
       </c>
       <c r="G3">
-        <v>0.3453908984830805</v>
+        <v>0.1582213029989659</v>
       </c>
       <c r="H3">
-        <v>0.3453908984830805</v>
+        <v>0.1582213029989659</v>
       </c>
       <c r="I3">
-        <v>0.1715285880980163</v>
+        <v>0.1737331954498449</v>
       </c>
       <c r="J3">
-        <v>0.1433541051168102</v>
+        <v>0.145996843193817</v>
       </c>
       <c r="K3">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="L3">
-        <v>0.2193698949824971</v>
+        <v>0.2006204756980352</v>
       </c>
       <c r="M3">
-        <v>2.154</v>
+        <v>1.875</v>
       </c>
       <c r="N3">
-        <v>0.04441237113402062</v>
+        <v>0.04040948275862069</v>
       </c>
       <c r="O3">
-        <v>1.145744680851064</v>
+        <v>0.9664948453608248</v>
       </c>
       <c r="P3">
-        <v>2.1</v>
+        <v>1.54</v>
       </c>
       <c r="Q3">
-        <v>0.04329896907216495</v>
+        <v>0.0331896551724138</v>
       </c>
       <c r="R3">
-        <v>1.117021276595745</v>
+        <v>0.7938144329896908</v>
       </c>
       <c r="S3">
-        <v>0.05399999999999983</v>
+        <v>0.335</v>
       </c>
       <c r="T3">
-        <v>0.02506963788300828</v>
+        <v>0.1786666666666666</v>
       </c>
       <c r="U3">
-        <v>11.6</v>
+        <v>3.39</v>
       </c>
       <c r="V3">
-        <v>0.2391752577319587</v>
+        <v>0.07306034482758621</v>
       </c>
       <c r="W3">
-        <v>0.06937269372693726</v>
+        <v>0.07822580645161289</v>
       </c>
       <c r="X3">
-        <v>0.03022436156583486</v>
+        <v>0.02074394029738349</v>
       </c>
       <c r="Y3">
-        <v>0.0391483321611024</v>
+        <v>0.05748186615422941</v>
       </c>
       <c r="Z3">
-        <v>0.3458434221146086</v>
+        <v>0.7325757575757575</v>
       </c>
       <c r="AA3">
-        <v>0.04957807428777497</v>
+        <v>0.1069537480063796</v>
       </c>
       <c r="AB3">
-        <v>0.03022436156583486</v>
+        <v>0.0209779607983485</v>
       </c>
       <c r="AC3">
-        <v>0.01935371272194011</v>
+        <v>0.08597578720803108</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.945</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.945</v>
       </c>
       <c r="AG3">
-        <v>-11.6</v>
+        <v>-2.445</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.01995986904636181</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.02550951545417735</v>
       </c>
       <c r="AJ3">
-        <v>-0.3143631436314363</v>
+        <v>-0.05562507109543852</v>
       </c>
       <c r="AK3">
-        <v>-0.7483870967741935</v>
+        <v>-0.0726489377507057</v>
       </c>
       <c r="AL3">
-        <v>0.001</v>
+        <v>0.089</v>
       </c>
       <c r="AM3">
-        <v>-0.6879999999999999</v>
+        <v>-0.652</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.3987341772151898</v>
       </c>
       <c r="AO3">
-        <v>1470</v>
+        <v>18.87640449438202</v>
       </c>
       <c r="AP3">
-        <v>-5.576923076923077</v>
+        <v>-1.031645569620253</v>
       </c>
       <c r="AQ3">
-        <v>-2.136627906976744</v>
+        <v>-2.576687116564417</v>
       </c>
     </row>
   </sheetData>
